--- a/Sinonimos modelo.xlsx
+++ b/Sinonimos modelo.xlsx
@@ -2,19 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farmiral53\Desktop\Farmiral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9483DDC9-0AFE-408E-BF03-63136AFAB0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532542C2-EF02-47DF-9A26-D51C684F966C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28788" yWindow="-16416" windowWidth="29016" windowHeight="15696" xr2:uid="{B21B622D-75DC-4520-8D6D-40B653D392E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$94</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="145">
   <si>
     <t>PPTO</t>
   </si>
@@ -373,6 +376,102 @@
   </si>
   <si>
     <t>ARRENDAMIENTO JESUS</t>
+  </si>
+  <si>
+    <t>Orden P&amp;L</t>
+  </si>
+  <si>
+    <t>Otros ingresos</t>
+  </si>
+  <si>
+    <t>Gross Revenue</t>
+  </si>
+  <si>
+    <t>Net Revenue</t>
+  </si>
+  <si>
+    <t>Margen Material Directo</t>
+  </si>
+  <si>
+    <t>Total COGS</t>
+  </si>
+  <si>
+    <t>Utilidad de producción</t>
+  </si>
+  <si>
+    <t>Utilidad Bruta</t>
+  </si>
+  <si>
+    <t>Utilidad Operativa</t>
+  </si>
+  <si>
+    <t>Total OP Expenses</t>
+  </si>
+  <si>
+    <t>Total Expenses</t>
+  </si>
+  <si>
+    <t>Utilidad Neta</t>
+  </si>
+  <si>
+    <t>Grupo P&amp;L</t>
+  </si>
+  <si>
+    <t>Ingresos</t>
+  </si>
+  <si>
+    <t>Resultados</t>
+  </si>
+  <si>
+    <t>Gastos</t>
+  </si>
+  <si>
+    <t>Costos</t>
+  </si>
+  <si>
+    <t>Costo directo</t>
+  </si>
+  <si>
+    <t>Descuentos</t>
+  </si>
+  <si>
+    <t>Gastos produccion</t>
+  </si>
+  <si>
+    <t>Gastos financieros</t>
+  </si>
+  <si>
+    <t>COMISIONES NO USAR</t>
+  </si>
+  <si>
+    <t>HONORARIOS CALIDAD NO USAR</t>
+  </si>
+  <si>
+    <t>HONORARIOS DESARROLLO NO USAR</t>
+  </si>
+  <si>
+    <t>Centro de costos</t>
+  </si>
+  <si>
+    <t>Admon</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Produccion</t>
+  </si>
+  <si>
+    <t>Almacen</t>
+  </si>
+  <si>
+    <t>Calidad</t>
+  </si>
+  <si>
+    <t>Desarrollo</t>
+  </si>
+  <si>
+    <t>Direccion</t>
   </si>
 </sst>
 </file>
@@ -724,667 +823,1623 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64046B5E-4296-4B37-A337-204EDC60254B}">
-  <dimension ref="A1:B81"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>401</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>402</v>
+      </c>
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>403</v>
+      </c>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>404</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="C6">
+        <v>490</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="C7">
+        <v>491</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8">
+        <v>499</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C9">
+        <v>501</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10">
+        <v>502</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11">
+        <v>503</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C12">
+        <v>504</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>505</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14">
+        <v>505</v>
+      </c>
+      <c r="D14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="C15">
+        <v>507</v>
+      </c>
+      <c r="D15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16">
+        <v>508</v>
+      </c>
+      <c r="D16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17">
+        <v>509</v>
+      </c>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18">
+        <v>510</v>
+      </c>
+      <c r="D18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19">
+        <v>511</v>
+      </c>
+      <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20">
+        <v>619</v>
+      </c>
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C21">
+        <v>510</v>
+      </c>
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22">
+        <v>520</v>
+      </c>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23">
+        <v>530</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24">
+        <v>601</v>
+      </c>
+      <c r="D24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25">
+        <v>602</v>
+      </c>
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26">
+        <v>603</v>
+      </c>
+      <c r="D26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B27" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>604</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="C28">
+        <v>605</v>
+      </c>
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="C29">
+        <v>606</v>
+      </c>
+      <c r="D29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="C30">
+        <v>607</v>
+      </c>
+      <c r="D30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="C31">
+        <v>607</v>
+      </c>
+      <c r="D31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="C32">
+        <v>607</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>607</v>
+      </c>
+      <c r="D33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>607</v>
+      </c>
+      <c r="D34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>607</v>
+      </c>
+      <c r="D35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36">
+        <v>613</v>
+      </c>
+      <c r="D36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37">
+        <v>614</v>
+      </c>
+      <c r="D37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38">
+        <v>615</v>
+      </c>
+      <c r="D38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39">
+        <v>615</v>
+      </c>
+      <c r="D39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40">
+        <v>617</v>
+      </c>
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41">
+        <v>618</v>
+      </c>
+      <c r="D41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42">
+        <v>619</v>
+      </c>
+      <c r="D42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43">
+        <v>619</v>
+      </c>
+      <c r="D43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44">
+        <v>619</v>
+      </c>
+      <c r="D44" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45">
+        <v>619</v>
+      </c>
+      <c r="D45" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46">
+        <v>619</v>
+      </c>
+      <c r="D46" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47">
+        <v>619</v>
+      </c>
+      <c r="D47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48">
+        <v>619</v>
+      </c>
+      <c r="D48" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49">
+        <v>619</v>
+      </c>
+      <c r="D49" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50">
+        <v>619</v>
+      </c>
+      <c r="D50" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51">
+        <v>619</v>
+      </c>
+      <c r="D51" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52">
+        <v>619</v>
+      </c>
+      <c r="D52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>619</v>
+      </c>
+      <c r="D53" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54">
+        <v>619</v>
+      </c>
+      <c r="D54" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55">
+        <v>619</v>
+      </c>
+      <c r="D55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56">
+        <v>619</v>
+      </c>
+      <c r="D56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57">
+        <v>619</v>
+      </c>
+      <c r="D57" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58">
+        <v>619</v>
+      </c>
+      <c r="D58" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59">
+        <v>619</v>
+      </c>
+      <c r="D59" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60">
+        <v>619</v>
+      </c>
+      <c r="D60" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61">
+        <v>619</v>
+      </c>
+      <c r="D61" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62">
+        <v>619</v>
+      </c>
+      <c r="D62" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63">
+        <v>619</v>
+      </c>
+      <c r="D63" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64">
+        <v>619</v>
+      </c>
+      <c r="D64" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65">
+        <v>619</v>
+      </c>
+      <c r="D65" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66">
+        <v>619</v>
+      </c>
+      <c r="D66" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67">
+        <v>619</v>
+      </c>
+      <c r="D67" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68">
+        <v>619</v>
+      </c>
+      <c r="D68" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69">
+        <v>619</v>
+      </c>
+      <c r="D69" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70">
+        <v>619</v>
+      </c>
+      <c r="D70" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71">
+        <v>619</v>
+      </c>
+      <c r="D71" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72">
+        <v>619</v>
+      </c>
+      <c r="D72" t="s">
+        <v>128</v>
+      </c>
+      <c r="E72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B73" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="C73">
+        <v>650</v>
+      </c>
+      <c r="D73" t="s">
+        <v>128</v>
+      </c>
+      <c r="E73" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B74" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="C74">
+        <v>651</v>
+      </c>
+      <c r="D74" t="s">
+        <v>128</v>
+      </c>
+      <c r="E74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>93</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B75" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>94</v>
-      </c>
-      <c r="B63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>95</v>
-      </c>
-      <c r="B64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>96</v>
-      </c>
-      <c r="B65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>97</v>
-      </c>
-      <c r="B66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>98</v>
-      </c>
-      <c r="B67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>99</v>
-      </c>
-      <c r="B68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>100</v>
-      </c>
-      <c r="B69" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>101</v>
-      </c>
-      <c r="B70" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>102</v>
-      </c>
-      <c r="B71" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>103</v>
-      </c>
-      <c r="B72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>104</v>
-      </c>
-      <c r="B73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>105</v>
-      </c>
-      <c r="B74" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>106</v>
-      </c>
-      <c r="B75" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>651</v>
+      </c>
+      <c r="D75" t="s">
+        <v>128</v>
+      </c>
+      <c r="E75" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>653</v>
+      </c>
+      <c r="D76" t="s">
+        <v>128</v>
+      </c>
+      <c r="E76" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="C77">
+        <v>653</v>
+      </c>
+      <c r="D77" t="s">
+        <v>128</v>
+      </c>
+      <c r="E77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="C78">
+        <v>655</v>
+      </c>
+      <c r="D78" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="C79">
+        <v>655</v>
+      </c>
+      <c r="D79" t="s">
+        <v>128</v>
+      </c>
+      <c r="E79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="C80">
+        <v>657</v>
+      </c>
+      <c r="D80" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>121</v>
+      </c>
+      <c r="C81">
+        <v>670</v>
+      </c>
+      <c r="D81" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82">
+        <v>701</v>
+      </c>
+      <c r="D82" t="s">
+        <v>133</v>
+      </c>
+      <c r="E82" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83">
+        <v>701</v>
+      </c>
+      <c r="D83" t="s">
+        <v>133</v>
+      </c>
+      <c r="E83" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84">
+        <v>701</v>
+      </c>
+      <c r="D84" t="s">
+        <v>133</v>
+      </c>
+      <c r="E84" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85">
+        <v>701</v>
+      </c>
+      <c r="D85" t="s">
+        <v>133</v>
+      </c>
+      <c r="E85" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>55</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86">
+        <v>701</v>
+      </c>
+      <c r="D86" t="s">
+        <v>133</v>
+      </c>
+      <c r="E86" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87">
+        <v>701</v>
+      </c>
+      <c r="D87" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>58</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88">
+        <v>707</v>
+      </c>
+      <c r="D88" t="s">
+        <v>133</v>
+      </c>
+      <c r="E88" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89">
+        <v>707</v>
+      </c>
+      <c r="D89" t="s">
+        <v>133</v>
+      </c>
+      <c r="E89" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90">
+        <v>707</v>
+      </c>
+      <c r="D90" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91">
+        <v>707</v>
+      </c>
+      <c r="D91" t="s">
+        <v>133</v>
+      </c>
+      <c r="E91" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92">
+        <v>720</v>
+      </c>
+      <c r="D92" t="s">
+        <v>127</v>
+      </c>
+      <c r="E92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93">
+        <v>730</v>
+      </c>
+      <c r="D93" t="s">
+        <v>127</v>
+      </c>
+      <c r="E93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" t="s">
+        <v>124</v>
+      </c>
+      <c r="C94">
+        <v>750</v>
+      </c>
+      <c r="D94" t="s">
+        <v>127</v>
+      </c>
+      <c r="E94" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D94">
+    <sortCondition ref="C2:C94"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>